--- a/outputs/RALEIGH3.xlsx
+++ b/outputs/RALEIGH3.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Given that Abi prefers to gather comprehensive information before proceeding with a task, they are likely to consider gathering more information on setting up the environment as a crucial step. This aligns with their motivation to use technology effectively to accomplish tasks and their comprehensive information processing style. The page contains relevant links and information that Abi would recognize as necessary for understanding how to set up the environment, making it a logical subgoal.</t>
+Why: The page contains various pieces of information related to the project, including deployment processes and technologies used. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely consider gathering more information on setting up the environment as a necessary step toward achieving the overall use case.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page has a clear structure with headings and subheadings that can help Abi understand where to find the information they need. Given Abi's motivation to gather comprehensive information and their tendency to read thoroughly before acting, scrolling to find relevant information about setting up the environment is a step that aligns well with their approach. The page content is straightforward and provides context, facilitating the action of scrolling to gather more information.</t>
+Facets: 2. Information Processing Style
+Why: Scrolling to find information aligns with Abi's comprehensive information processing style. The page is structured with various sections and headings that provide a clear indication of where relevant information might be found. This makes it likely that Abi will know to scroll and look for the information needed to set up the environment.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 5. Learning Style, 4. Computer Self-Efficacy
-Why: While scrolling through the page, Abi might not find all the detailed information required for setting up the environment directly on this page. The page contains links and general information but does not provide explicit, step-by-step instructions for setting up the environment, which Abi prefers due to their process-oriented learning style. The page might not instill confidence in Abi that they are making progress toward their goal, as the information seems fragmented and requires further navigation to gather comprehensively. This could make Abi doubt if they are on the right track, given their low confidence in unfamiliar computing tasks.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling might reveal some information, the page is quite dense with various sections and links. Abi might not immediately find comprehensive and clear instructions specifically for setting up the environment. The information is scattered, and without clear guidance or a step-by-step process, Abi might feel uncertain about whether she has gathered all the necessary information. This could affect her confidence in making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/RALEIGH3.xlsx
+++ b/outputs/RALEIGH3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page contains various files and documentation links, such as "README.md," "contribute.md," and "Deploying.md," which are likely to contain information on setting up the environment. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would consider gathering more information from these resources as a necessary step toward setting up the environment.</t>
+Why: The page contains various resources and documentation links such as "README.md," "contribute.md," and "Deploying.md," which are likely to provide comprehensive information on setting up the environment. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would consider gathering more information from these resources as a necessary step toward achieving the overall use case.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling to find information aligns with Abi's comprehensive information processing style. The page contains various files and documentation links that are likely to provide the necessary information for setting up the environment. Abi would be motivated to scroll through the page to gather more information, as it is a logical step toward achieving her subgoal.</t>
+Why: The page is structured in a way that provides various sections and links that could be relevant to setting up the environment. Abi, with her comprehensive information processing style, would likely know to scroll through the page to find relevant information. The presence of documentation links and detailed sections would guide her to take this action.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling, Abi might find various files and documentation links, but it is not immediately clear which specific document contains the comprehensive information needed for setting up the environment. The page has many files and links, which could be overwhelming and confusing for Abi, given her low computer self-efficacy. She might not be confident that she has found all the necessary information or that she is making progress toward her goal. The lack of clear guidance or a step-by-step process on the page could hinder her ability to gather all the required information effectively.</t>
+Why: While scrolling through the page, Abi might find various links and sections that could potentially contain the information she needs. However, the page is quite dense with information and different types of content, which might overwhelm her. Given Abi's comprehensive information processing style, she might not immediately know if she has found all the necessary information for setting up the environment. Additionally, her low computer self-efficacy might make her doubt whether she has gathered all the relevant details, leading to uncertainty about her progress toward the goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/RALEIGH3.xlsx
+++ b/outputs/RALEIGH3.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page contains various resources and documentation links such as "README.md," "contribute.md," and "Deploying.md," which are likely to provide comprehensive information on setting up the environment. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would consider gathering more information from these resources as a necessary step toward achieving the overall use case.</t>
+Why: The page contains a "README.md" file, which is a common place to find information on setting up the environment for a project. ABI, being motivated to accomplish tasks and having a comprehensive information processing style, would likely consider reading the README file as a step toward gathering more information on setting up the environment. The presence of the "How to use?" section also indicates that this page is intended to help users get started, which aligns with ABI's goal.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page is structured in a way that provides various sections and links that could be relevant to setting up the environment. Abi, with her comprehensive information processing style, would likely know to scroll through the page to find relevant information. The presence of documentation links and detailed sections would guide her to take this action.</t>
+Why: Scrolling to find information is a natural action for someone with a comprehensive information processing style like ABI. The page is structured in a way that suggests there is more information available below the initial view, and the presence of sections like "README.md" and "How to use?" indicates that relevant information might be found by scrolling. Therefore, ABI would know to scroll to gather more information on setting up the environment.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling through the page, Abi might find various links and sections that could potentially contain the information she needs. However, the page is quite dense with information and different types of content, which might overwhelm her. Given Abi's comprehensive information processing style, she might not immediately know if she has found all the necessary information for setting up the environment. Additionally, her low computer self-efficacy might make her doubt whether she has gathered all the relevant details, leading to uncertainty about her progress toward the goal.</t>
+Why: While scrolling might reveal some information, the page does not provide comprehensive or clear instructions specifically for setting up the environment. The "README.md" file and the "How to use?" section might contain relevant information, but it is not immediately clear or detailed enough to ensure ABI that she has all the necessary information. ABI's comprehensive information processing style requires detailed and clear instructions, and her low computer self-efficacy means she might struggle if the information is not straightforward. Therefore, she might not feel confident that she has made progress toward her goal or gathered all the information she needs.</t>
         </is>
       </c>
     </row>
